--- a/data/income_statement/3digits/total/261_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/261_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>261-Manufacture of electronic components and boards</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>261-Manufacture of electronic components and boards</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,20 +841,25 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>465770.4405200001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>593729.56964</v>
+        <v>593729.5696400001</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>693336.88034</v>
@@ -962,13 +868,13 @@
         <v>794233.7245600001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1000932.73846</v>
+        <v>1012910.05862</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1307084.14563</v>
+        <v>1319224.9276</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1568318.58355</v>
+        <v>1593892.52137</v>
       </c>
       <c r="J5" s="47" t="n">
         <v>1838305.13796</v>
@@ -977,16 +883,21 @@
         <v>3342197.76897</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4520396.93651</v>
+        <v>4522170.22993</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>5841202.22253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5843529.07562</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>8284992.487</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>410256.85023</v>
@@ -998,16 +909,16 @@
         <v>622916.2907</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>718414.8144499999</v>
+        <v>718414.8144500001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>827082.3911499998</v>
+        <v>838419.407</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>949106.3564</v>
+        <v>960789.9009100001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1003850.84975</v>
+        <v>1028890.54361</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>1341824.48739</v>
@@ -1016,76 +927,86 @@
         <v>2979832.7724</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3482040.51608</v>
+        <v>3483652.91169</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4191951.52786</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4194117.086850001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6445466.79</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>48550.01435</v>
+        <v>48550.01435000001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>61212.40389999999</v>
+        <v>61212.4039</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>64419.51145000001</v>
+        <v>64419.51145</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>70675.32093</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>166127.54074</v>
+        <v>166592.08038</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>345350.61826</v>
+        <v>345719.48172</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>541816.4555</v>
+        <v>542209.64511</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>455266.5238</v>
+        <v>455266.5238000001</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>329054.31284</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>968548.81376</v>
+        <v>968548.8137599998</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1567120.5124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1567266.6494</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1739471.524</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>6963.575940000001</v>
+        <v>6963.57594</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>6358.34445</v>
+        <v>6358.344450000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>6001.07819</v>
+        <v>6001.078189999999</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>5143.58918</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>7722.806570000001</v>
+        <v>7898.57124</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>12627.17097</v>
+        <v>12715.54497</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>22651.2783</v>
+        <v>22792.33265</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>41214.12677</v>
@@ -1094,37 +1015,42 @@
         <v>33310.68373</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>69807.60667000001</v>
+        <v>69968.50448</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>82130.18226999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>82145.33936999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>100054.173</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>30972.59476</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>46625.24557000001</v>
+        <v>46625.24557</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>47454.01430999999</v>
+        <v>47454.01431000001</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>53717.92352</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>48667.98122</v>
+        <v>48811.29141</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>57791.38139000001</v>
+        <v>57916.30788</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>63883.20041999999</v>
+        <v>64256.64114</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>66873.28253</v>
@@ -1133,16 +1059,21 @@
         <v>146070.87818</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>154255.84477</v>
+        <v>154259.03369</v>
       </c>
       <c r="M9" s="47" t="n">
         <v>259728.94082</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>372516.667</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>6269.1478</v>
@@ -1151,19 +1082,19 @@
         <v>7238.18838</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>5294.156649999999</v>
+        <v>5294.156650000001</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>8800.03602</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>8451.18951</v>
+        <v>8594.499699999998</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>13408.55496</v>
+        <v>13529.66433</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>13889.70625</v>
+        <v>14239.4704</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>15756.64344</v>
@@ -1172,16 +1103,21 @@
         <v>42549.76355</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>87469.14653</v>
+        <v>87472.33545</v>
       </c>
       <c r="M10" s="48" t="n">
         <v>146162.59233</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>202717.057</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>23182.52872</v>
@@ -1196,13 +1132,13 @@
         <v>43020.85116999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>38792.5142</v>
+        <v>38792.51420000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>42663.78399999999</v>
+        <v>42667.60112000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>48854.75013</v>
+        <v>48878.4267</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>48460.04504</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>106688.84582</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>156243.912</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1520.91824</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>6877.50267</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>13555.698</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>434797.84576</v>
@@ -1274,13 +1220,13 @@
         <v>740515.8010399999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>952264.7572400001</v>
+        <v>964098.7672100001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1249292.76424</v>
+        <v>1261308.61972</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1504435.38313</v>
+        <v>1529635.88023</v>
       </c>
       <c r="J13" s="47" t="n">
         <v>1771431.85543</v>
@@ -1289,16 +1235,21 @@
         <v>3196126.89079</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4366141.09174</v>
+        <v>4367911.196239999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>5581473.28171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5583800.1348</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>7912475.82</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>352264.3515100001</v>
@@ -1307,19 +1258,19 @@
         <v>437460.03232</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>500838.7293</v>
+        <v>500838.7292999999</v>
       </c>
       <c r="F14" s="47" t="n">
         <v>601428.4410799999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>759536.59371</v>
+        <v>768889.5955299999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1005166.67285</v>
+        <v>1014705.73142</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1234378.86493</v>
+        <v>1254598.65882</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>1470771.81778</v>
@@ -1328,16 +1279,21 @@
         <v>2623672.03943</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3376498.40815</v>
+        <v>3377885.175729999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4335215.43878</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4341044.864979999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6043016.686</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>275933.41957</v>
@@ -1349,16 +1305,16 @@
         <v>397341.91188</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>472322.4345499999</v>
+        <v>472322.4345500001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>648408.3057500001</v>
+        <v>657761.3075699999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>857370.18253</v>
+        <v>865745.8498999999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1037923.98572</v>
+        <v>1054844.62976</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>1161453.29931</v>
@@ -1367,16 +1323,21 @@
         <v>2243490.52321</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2797348.95336</v>
+        <v>2798598.246100001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3515170.099140001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3520138.53316</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4549164.782</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>62758.22715999999</v>
@@ -1394,10 +1355,10 @@
         <v>89630.50003999998</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>122016.28423</v>
+        <v>123137.75397</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>160554.81887</v>
+        <v>162548.98754</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>270662.65263</v>
@@ -1406,16 +1367,21 @@
         <v>297975.28963</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>482725.29759</v>
+        <v>482774.2393199999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>681247.80012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>681832.8249100001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1298778.879</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>11911.1937</v>
@@ -1433,10 +1399,10 @@
         <v>17670.28092</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>21811.02863</v>
+        <v>21852.95009</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>34913.47196</v>
+        <v>35488.09194999999</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>37834.06829</v>
@@ -1445,16 +1411,21 @@
         <v>75095.08669</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>83947.20219999999</v>
+        <v>84035.73531</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>124836.99025</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>125112.95764</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>185585.429</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1661.51108</v>
@@ -1475,7 +1446,7 @@
         <v>3969.17746</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>986.58838</v>
+        <v>1716.94957</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>821.79755</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>13960.54927</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>9487.596</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>82533.49425</v>
@@ -1508,31 +1484,36 @@
         <v>139087.35996</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>192728.16353</v>
+        <v>195209.17168</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>244126.09139</v>
+        <v>246602.8883</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>270056.5182</v>
+        <v>275037.2214099999</v>
       </c>
       <c r="J19" s="47" t="n">
         <v>300660.03765</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>572454.85136</v>
+        <v>572454.8513599999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>989642.68359</v>
+        <v>990026.0205099999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1246257.84293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1242755.26982</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1869459.134</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>62991.26149</v>
@@ -1547,31 +1528,36 @@
         <v>107399.40286</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>137125.4278</v>
+        <v>138423.13876</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>167249.66128</v>
+        <v>168877.47285</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>170090.85377</v>
+        <v>172543.70776</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>208640.3223</v>
+        <v>208642.35731</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>295554.9888</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>408864.0736899999</v>
+        <v>410011.0554400001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>583029.5299200001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>584882.4061799999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>752517.922</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>6253.85022</v>
@@ -1586,7 +1572,7 @@
         <v>14533.29322</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>22822.94131</v>
+        <v>22940.84646</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>26482.69047</v>
@@ -1601,16 +1587,21 @@
         <v>38995.03379</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>44029.52386000001</v>
+        <v>44042.00174</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>65740.2789</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>65902.40216</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>84955.96799999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>21805.82398</v>
@@ -1625,31 +1616,36 @@
         <v>33770.41241</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>44395.79119</v>
+        <v>44873.8118</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>58986.80383</v>
+        <v>59256.85627</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>57762.47011</v>
+        <v>57996.15636</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>53457.31269000001</v>
+        <v>53457.31269</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>71826.9471</v>
+        <v>71826.94709999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>131310.53656</v>
+        <v>131405.6201</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>241162.11097</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>241253.28748</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>314369.576</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>34931.58729</v>
@@ -1661,34 +1657,39 @@
         <v>52301.09776</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>59095.69722999999</v>
+        <v>59095.69723000001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>69906.69529999999</v>
+        <v>70608.48050000001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>81780.16698000001</v>
+        <v>83137.92611</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>92222.94524000002</v>
+        <v>94442.11298000001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>123150.32349</v>
+        <v>123152.3585</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>184733.00791</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>233524.0132699999</v>
+        <v>234563.4336</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>276127.1400499999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>277726.7165399999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>353192.378</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>19542.23276</v>
@@ -1703,52 +1704,57 @@
         <v>31687.9571</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>55602.73573000001</v>
+        <v>56786.03292000001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>76876.43011</v>
+        <v>77725.41544999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>99965.66442999999</v>
+        <v>102493.51365</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>92019.71535000001</v>
+        <v>92017.68034000001</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>276899.86256</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>580778.6098999999</v>
+        <v>580014.96507</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>663228.31301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>657872.8636400001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1116941.212</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>43970.57326</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>69795.47657</v>
+        <v>69795.47657000001</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>83690.77845999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>59837.73138999999</v>
+        <v>59837.73139</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>45574.34801</v>
+        <v>45628.57917</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>68502.57409000001</v>
+        <v>68733.27008</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>76398.48612</v>
+        <v>76751.31595</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>71697.01091</v>
@@ -1757,16 +1763,21 @@
         <v>145140.84216</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>610427.96658</v>
+        <v>610449.30603</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>272680.41071</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>278951.12675</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>707698.597</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>5.49141</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>2893.67777</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>15229.095</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>4500.13117</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>4432.08225</v>
@@ -1853,37 +1874,42 @@
         <v>11933.25043</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>6105.007689999999</v>
+        <v>6105.00769</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>5041.30614</v>
+        <v>5041.306140000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>5389.47927</v>
+        <v>5398.73775</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>7399.049109999999</v>
+        <v>7400.78038</v>
       </c>
       <c r="I28" s="48" t="n">
         <v>9848.42526</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>7030.22086</v>
+        <v>7030.220860000001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>11291.09409</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>23909.16277</v>
+        <v>23917.93003</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>42340.29115999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>42366.16943</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>41141.319</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>2.30438</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>1.33475</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>855.97659</v>
@@ -1940,13 +1971,13 @@
         <v>523.63333</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>334.24357</v>
+        <v>336.74357</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>519.25012</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>593.2635099999999</v>
+        <v>593.26351</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>1249.55856</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>1993.45457</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>6298.771</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>8.893409999999999</v>
@@ -1979,7 +2015,7 @@
         <v>23.74645</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>44.93201</v>
+        <v>44.93201000000001</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>66.70819</v>
@@ -1996,17 +2032,22 @@
       <c r="M31" s="48" t="n">
         <v>348.8191</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>1191.325</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>37217.01224</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>54404.3546</v>
+        <v>54404.35460000001</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>72684.95937000001</v>
@@ -2015,31 +2056,36 @@
         <v>49770.08277</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>35340.19241999999</v>
+        <v>35385.1651</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>55887.39601</v>
+        <v>56107.74304000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>60653.71381</v>
+        <v>61006.54364</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>52611.92916000001</v>
+        <v>52611.92916</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>112673.02361</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>563796.5464</v>
+        <v>563807.65986</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>205866.95579</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>212085.55369</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>628600.392</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>6.61109</v>
@@ -2057,7 +2103,7 @@
         <v>126.4255</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>961.4593299999999</v>
+        <v>967.5770199999999</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>818.8624599999999</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>4288.95976</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>2143.943</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>1442.20189</v>
@@ -2126,10 +2182,10 @@
         <v>2728.84659</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>4709.402260000001</v>
+        <v>4709.40226</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>4518.6221</v>
+        <v>4518.622100000001</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>4165.29543</v>
@@ -2141,22 +2197,27 @@
         <v>3272.36056</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>7702.137250000001</v>
+        <v>7702.13725</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>7578.435680000001</v>
+        <v>7578.43568</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>15509.85819</v>
+        <v>15511.31692</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>10446.78664</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>10473.02651</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>13093.192</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>37680.90918</v>
@@ -2171,31 +2232,36 @@
         <v>45199.06361</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>66146.36437</v>
+        <v>66386.9427</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>73762.16184</v>
+        <v>73819.86755</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>64107.05421</v>
+        <v>64653.68481</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>97746.61049000001</v>
+        <v>97746.61048999999</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>131633.71447</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>727570.70875</v>
+        <v>727586.68823</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>289685.18356</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>300419.21472</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>686255.469</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2180.19902</v>
@@ -2216,7 +2282,7 @@
         <v>92.58732000000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>920.94124</v>
+        <v>920.9412400000001</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>202.83386</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>20447.16748</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>50403.628</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>188.20897</v>
@@ -2252,13 +2323,13 @@
         <v>1957.87009</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>3154.73419</v>
+        <v>3167.23419</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1173.46068</v>
+        <v>1348.30246</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5934.979710000001</v>
+        <v>5934.97971</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>3997.84533</v>
@@ -2267,13 +2338,18 @@
         <v>19821.94793</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>10203.66021</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>10287.47314</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3813.359</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>2.16163</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>1.73322</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>125.581</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>34950.06571</v>
@@ -2327,13 +2408,13 @@
         <v>39256.33999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>62932.6362</v>
+        <v>63173.21453</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>69028.67592000001</v>
+        <v>69067.598</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>60811.07102</v>
+        <v>61182.85984</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>89405.66592</v>
@@ -2342,16 +2423,21 @@
         <v>123472.84682</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>686218.4678</v>
+        <v>686234.44727</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>252077.44267</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>262727.66015</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>627697.711</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>19.82851</v>
@@ -2369,7 +2455,7 @@
         <v>327.4288299999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>987.16791</v>
+        <v>993.45154</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>830.32148</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>3834.49524</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>3021.712</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>340.44534</v>
@@ -2459,16 +2555,21 @@
         <v>843.47543</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1427.23433</v>
+        <v>1427.23434</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3120.68474</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3120.68549</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1193.478</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>13170.13126</v>
@@ -2483,13 +2584,13 @@
         <v>18463.55055</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>26879.19051</v>
+        <v>27070.69508</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>28372.28444</v>
+        <v>29437.35401</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>65328.77516999999</v>
+        <v>67128.50932</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>58732.42187</v>
@@ -2498,16 +2599,21 @@
         <v>92265.07664</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>183417.19213</v>
+        <v>183425.84933</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>136384.63137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>139990.25983</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>222069.886</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>9082.9499</v>
@@ -2522,31 +2628,36 @@
         <v>14191.41566</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>16656.79828</v>
+        <v>16848.30285</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>20500.07386</v>
+        <v>21565.14343</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>49419.1715</v>
+        <v>51218.90565</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>38877.48179000001</v>
+        <v>38877.48179</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>74074.87642</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>142214.69912</v>
+        <v>142223.35632</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>117658.7732</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>121264.40166</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>176884.024</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>4087.18136</v>
@@ -2564,7 +2675,7 @@
         <v>10222.39223</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>7872.210579999999</v>
+        <v>7872.21058</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>15909.60367</v>
@@ -2576,16 +2687,21 @@
         <v>18190.20022</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>41202.49301</v>
+        <v>41202.49301000001</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>18725.85817</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>45185.862</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>12661.76558</v>
@@ -2600,37 +2716,42 @@
         <v>27863.07433</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>8151.528860000001</v>
+        <v>8956.974310000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>43244.55792</v>
+        <v>43201.46397</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>46928.32117</v>
+        <v>47462.63547</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>7237.6939</v>
+        <v>7235.658890000001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>198141.91361</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>280218.6756</v>
+        <v>279451.73354</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>509838.90879</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>496414.51584</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>916314.454</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>2305.70954</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>4869.291909999999</v>
+        <v>4869.29191</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>6614.218589999999</v>
@@ -2639,13 +2760,13 @@
         <v>5032.946730000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>10456.34583</v>
+        <v>10587.43574</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>6298.307360000001</v>
+        <v>6304.49495</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>5516.00356</v>
+        <v>5593.52781</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>16038.37151</v>
@@ -2654,16 +2775,21 @@
         <v>15278.13283</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>21840.80604</v>
+        <v>21842.86065</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>32279.49453</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>32283.34541000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>52442.273</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>54.25164</v>
@@ -2678,7 +2804,7 @@
         <v>113.26668</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>94.19674999999999</v>
+        <v>168.76365</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>54.02612999999999</v>
@@ -2696,34 +2822,39 @@
         <v>17.21833</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>57.4109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>57.41089999999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1113.559</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>2251.4579</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>4868.205129999999</v>
+        <v>4868.20513</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>6589.67379</v>
+        <v>6589.673789999999</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>4919.68005</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>10362.14908</v>
+        <v>10418.67209</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>6244.281230000001</v>
+        <v>6250.46882</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>5513.06892</v>
+        <v>5590.59317</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>15576.62068</v>
@@ -2732,19 +2863,24 @@
         <v>15142.48028</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>21823.58771</v>
+        <v>21825.64232</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>32222.08363</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>32225.93451</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>51328.714</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>8757.590920000001</v>
+        <v>8757.590920000002</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>2436.42552</v>
@@ -2756,13 +2892,13 @@
         <v>5425.85421</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>6808.11568</v>
+        <v>6935.910910000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>17895.1582</v>
+        <v>17926.06351</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>5990.299889999999</v>
+        <v>6180.47482</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>18903.2478</v>
@@ -2771,16 +2907,21 @@
         <v>7166.4604</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>47187.01527999999</v>
+        <v>56700.35494</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>42458.41589</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>42619.07895</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>114546.202</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2037.296</v>
@@ -2813,13 +2954,18 @@
         <v>15.40278</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>7862.55319</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>7862.553189999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>82423.17999999999</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>186.11555</v>
@@ -2834,13 +2980,13 @@
         <v>593.50892</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>196.78097</v>
+        <v>284.7997</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>915.88216</v>
+        <v>915.91773</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>114.25312</v>
+        <v>117.8527</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>345.1683399999999</v>
@@ -2849,19 +2995,24 @@
         <v>567.56436</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>655.70362</v>
+        <v>683.2438199999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>470.70737</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>487.33617</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1006.752</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>6534.179369999999</v>
+        <v>6534.17937</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>2208.89416</v>
@@ -2870,16 +3021,16 @@
         <v>12543.05385</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>4830.846129999999</v>
+        <v>4830.84613</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>5065.08859</v>
+        <v>5104.86509</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>14181.04025</v>
+        <v>14211.90999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>3256.63198</v>
+        <v>3443.20733</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>14201.16278</v>
@@ -2888,16 +3039,21 @@
         <v>6475.308379999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>46515.90888</v>
+        <v>56001.70834</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>34125.15533</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>34269.18958999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>31116.27</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>6209.8842</v>
@@ -2912,31 +3068,36 @@
         <v>27470.16685</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>11799.75901</v>
+        <v>12608.49914</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>31647.70708</v>
+        <v>31579.89541</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>46454.02484000001</v>
+        <v>46875.68846</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>4372.817609999997</v>
+        <v>4370.7826</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>206253.58604</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>254872.46636</v>
+        <v>244594.23925</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>499659.98743</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>486078.7823</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>854210.525</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>4071.62606</v>
@@ -2951,13 +3112,13 @@
         <v>5540.12634</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>6471.98874</v>
+        <v>6665.2583</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>7142.66167</v>
+        <v>7147.590990000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>8438.819240000001</v>
+        <v>8455.363529999999</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>11044.93724</v>
@@ -2966,19 +3127,24 @@
         <v>17926.77112</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>24426.07288</v>
+        <v>24451.97877</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>50323.73343000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>50356.94764999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>76248.391</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>2138.258140000001</v>
+        <v>2138.25814</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>23735.23032</v>
@@ -2990,28 +3156,31 @@
         <v>21930.04051</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>5327.770270000001</v>
+        <v>5943.240839999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>24505.04541</v>
+        <v>24432.30442</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>38015.20559999999</v>
+        <v>38420.32493000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-6672.119630000001</v>
+        <v>-6674.154640000001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>188326.81492</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>230446.39348</v>
+        <v>220142.26048</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>449336.254</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>435721.83465</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>777962.134</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>152</v>
@@ -3044,28 +3216,31 @@
         <v>183</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>364</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>454</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>